--- a/biology/Histoire de la zoologie et de la botanique/Bulletin_de_la_Société_d'histoire_naturelle_d'Afrique_du_Nord/Bulletin_de_la_Société_d'histoire_naturelle_d'Afrique_du_Nord.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bulletin_de_la_Société_d'histoire_naturelle_d'Afrique_du_Nord/Bulletin_de_la_Société_d'histoire_naturelle_d'Afrique_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulletin_de_la_Soci%C3%A9t%C3%A9_d%27histoire_naturelle_d%27Afrique_du_Nord</t>
+          <t>Bulletin_de_la_Société_d'histoire_naturelle_d'Afrique_du_Nord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bulletin de la Société d'histoire naturelle d'Afrique du Nord (Bull. Soc. Hist. Nat. Afr. N.) est une publication de la Société d'histoire naturelle d'Afrique du Nord fondée en 1909 et dont le siège se trouve actuellement à l'Université d'Alger (dite "fac centrale").
